--- a/Model 11_27/Datasheet_combined.xlsx
+++ b/Model 11_27/Datasheet_combined.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6750" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Pneu_model" sheetId="13" r:id="rId1"/>
-    <sheet name="Pneu Sources" sheetId="17" r:id="rId2"/>
-    <sheet name="UTI_model" sheetId="15" r:id="rId3"/>
-    <sheet name="Sepsis_model" sheetId="14" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="18" r:id="rId2"/>
+    <sheet name="Pneu Sources" sheetId="17" r:id="rId3"/>
+    <sheet name="UTI_model" sheetId="15" r:id="rId4"/>
+    <sheet name="Sepsis_model" sheetId="14" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr autoRecover="0" repairLoad="1"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -548,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,650 +954,596 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="19">
-        <v>0</v>
-      </c>
-      <c r="C8" s="19">
-        <v>0</v>
-      </c>
-      <c r="D8" s="19">
-        <v>0</v>
-      </c>
-      <c r="E8" s="19">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>414</v>
-      </c>
-      <c r="G8">
-        <v>492</v>
-      </c>
-      <c r="H8">
-        <v>447</v>
-      </c>
-      <c r="I8">
-        <v>481</v>
-      </c>
-      <c r="J8">
-        <v>199</v>
-      </c>
-      <c r="K8">
-        <v>201</v>
-      </c>
-      <c r="L8">
-        <v>140</v>
-      </c>
-      <c r="M8">
-        <v>156</v>
-      </c>
-      <c r="N8">
-        <v>231</v>
-      </c>
-      <c r="O8">
-        <v>231</v>
-      </c>
-      <c r="P8">
-        <v>189</v>
-      </c>
-      <c r="Q8">
-        <v>131</v>
-      </c>
-      <c r="R8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4">
+        <v>40</v>
+      </c>
+      <c r="E8" s="4">
+        <v>41</v>
+      </c>
+      <c r="F8" s="3">
+        <v>44</v>
+      </c>
+      <c r="G8" s="3">
+        <v>48</v>
+      </c>
+      <c r="H8" s="3">
+        <v>53</v>
+      </c>
+      <c r="I8" s="3">
+        <v>55</v>
+      </c>
+      <c r="J8" s="3">
+        <v>59</v>
+      </c>
+      <c r="K8" s="3">
+        <v>62</v>
+      </c>
+      <c r="L8" s="3">
         <v>63</v>
+      </c>
+      <c r="M8" s="3">
+        <v>66</v>
+      </c>
+      <c r="N8" s="3">
+        <v>67</v>
+      </c>
+      <c r="O8" s="3">
+        <v>61</v>
+      </c>
+      <c r="P8" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>64</v>
+      </c>
+      <c r="R8" s="6">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="19">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19">
-        <v>0</v>
-      </c>
-      <c r="D9" s="19">
-        <v>0</v>
-      </c>
-      <c r="E9" s="19">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>141</v>
-      </c>
-      <c r="G9" s="3">
-        <v>157</v>
-      </c>
-      <c r="H9" s="3">
-        <v>95</v>
-      </c>
-      <c r="I9" s="3">
-        <v>122</v>
-      </c>
-      <c r="J9" s="3">
-        <v>53</v>
-      </c>
-      <c r="K9" s="3">
-        <v>40</v>
-      </c>
-      <c r="L9" s="3">
-        <v>29</v>
-      </c>
-      <c r="M9" s="3">
-        <v>35</v>
-      </c>
-      <c r="N9" s="3">
-        <v>61</v>
-      </c>
-      <c r="O9" s="3">
-        <v>55</v>
-      </c>
-      <c r="P9" s="3">
-        <v>38</v>
-      </c>
-      <c r="Q9" s="1">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R9" s="3">
-        <v>14</v>
-      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
+      <c r="A10" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>28</v>
+        <v>6.8223934999999999E-2</v>
       </c>
       <c r="C10" s="4">
-        <v>33</v>
+        <v>7.3936685000000002E-2</v>
       </c>
       <c r="D10" s="4">
-        <v>40</v>
+        <v>8.5411685000000001E-2</v>
       </c>
       <c r="E10" s="4">
-        <v>41</v>
-      </c>
-      <c r="F10" s="3">
-        <v>44</v>
-      </c>
-      <c r="G10" s="3">
-        <v>48</v>
-      </c>
-      <c r="H10" s="3">
-        <v>53</v>
-      </c>
-      <c r="I10" s="3">
-        <v>55</v>
-      </c>
-      <c r="J10" s="3">
-        <v>59</v>
-      </c>
-      <c r="K10" s="3">
-        <v>62</v>
-      </c>
-      <c r="L10" s="3">
-        <v>63</v>
-      </c>
-      <c r="M10" s="3">
-        <v>66</v>
-      </c>
-      <c r="N10" s="3">
-        <v>67</v>
-      </c>
-      <c r="O10" s="3">
-        <v>61</v>
-      </c>
-      <c r="P10" s="3">
-        <v>64</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>64</v>
-      </c>
-      <c r="R10" s="6">
-        <v>64</v>
+        <v>8.4051122000000006E-2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>9.2109112000000007E-2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>9.7155783999999995E-2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.108660435</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.109467303</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.113163925</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.108742466</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.124107856</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.12151754100000001</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.12963685599999999</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.125379031</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0.131918217</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0.131918217</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0.131918217</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="6"/>
+      <c r="A11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0.1858974358974359</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4">
-        <v>6.8223934999999999E-2</v>
-      </c>
-      <c r="C12" s="4">
-        <v>7.3936685000000002E-2</v>
-      </c>
-      <c r="D12" s="4">
-        <v>8.5411685000000001E-2</v>
-      </c>
-      <c r="E12" s="4">
-        <v>8.4051122000000006E-2</v>
-      </c>
-      <c r="F12" s="4">
-        <v>9.2109112000000007E-2</v>
-      </c>
-      <c r="G12" s="4">
-        <v>9.7155783999999995E-2</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0.108660435</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0.109467303</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0.113163925</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0.108742466</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0.124107856</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0.12151754100000001</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0.12963685599999999</v>
-      </c>
-      <c r="O12" s="5">
-        <v>0.125379031</v>
-      </c>
-      <c r="P12" s="5">
-        <v>0.131918217</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>0.131918217</v>
-      </c>
-      <c r="R12" s="9">
-        <v>0.131918217</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B12" s="3">
+        <f>995/4931</f>
+        <v>0.20178462786453052</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="6">
-        <v>0.1858974358974359</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="C13" s="6">
-        <v>0.1858974358974359</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="D13" s="6">
-        <v>0.1858974358974359</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0.1858974358974359</v>
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.18099999999999999</v>
       </c>
       <c r="F13" s="6">
-        <v>0.1858974358974359</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="G13" s="6">
-        <v>0.1858974358974359</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="H13" s="6">
-        <v>0.1858974358974359</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="I13" s="6">
-        <v>0.1858974358974359</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="J13" s="6">
-        <v>0.1858974358974359</v>
+        <v>0.17099999999999999</v>
       </c>
       <c r="K13" s="6">
-        <v>0.1858974358974359</v>
+        <v>0.16899999999999998</v>
       </c>
       <c r="L13" s="6">
-        <v>0.1858974358974359</v>
-      </c>
-      <c r="M13" s="6">
-        <v>0.1858974358974359</v>
+        <v>0.16699999999999998</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.16500000000000001</v>
       </c>
       <c r="N13" s="3">
-        <v>0.1858974358974359</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="O13" s="6">
-        <v>0.1858974358974359</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="P13" s="6">
-        <v>0.1858974358974359</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="Q13" s="6">
-        <v>0.1858974358974359</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="R13" s="6">
-        <v>0.1858974358974359</v>
+        <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="3">
-        <f>995/4931</f>
-        <v>0.20178462786453052</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="6">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="C14" s="6">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D14" s="6">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F14" s="6">
+        <v>7.5749999999999998E-2</v>
+      </c>
+      <c r="G14" s="6">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>8.3250000000000005E-2</v>
+      </c>
+      <c r="I14" s="6">
+        <v>8.7000000000000008E-2</v>
+      </c>
+      <c r="J14" s="6">
+        <v>9.0750000000000011E-2</v>
+      </c>
+      <c r="K14" s="6">
+        <v>9.4500000000000015E-2</v>
+      </c>
+      <c r="L14" s="6">
+        <v>9.8250000000000018E-2</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0.10199999999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" s="6">
-        <v>0.18099999999999999</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="C15" s="6">
-        <v>0.18099999999999999</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="D15" s="6">
-        <v>0.18099999999999999</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="E15" s="3">
-        <v>0.18099999999999999</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F15" s="6">
-        <v>0.17899999999999999</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="G15" s="6">
-        <v>0.17699999999999999</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="H15" s="6">
-        <v>0.17499999999999999</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="I15" s="6">
-        <v>0.17299999999999999</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="J15" s="6">
-        <v>0.17099999999999999</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="K15" s="6">
-        <v>0.16899999999999998</v>
+        <v>6.3E-2</v>
       </c>
       <c r="L15" s="6">
-        <v>0.16699999999999998</v>
+        <v>6.2E-2</v>
       </c>
       <c r="M15" s="3">
-        <v>0.16500000000000001</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="N15" s="3">
-        <v>0.16500000000000001</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="O15" s="6">
-        <v>0.16500000000000001</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="P15" s="6">
-        <v>0.16500000000000001</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="Q15" s="6">
-        <v>0.16500000000000001</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="R15" s="6">
-        <v>0.16500000000000001</v>
+        <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="6">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="C16" s="6">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="D16" s="6">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="E16" s="3">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="F16" s="6">
-        <v>7.5749999999999998E-2</v>
-      </c>
-      <c r="G16" s="6">
-        <v>7.9500000000000001E-2</v>
-      </c>
-      <c r="H16" s="6">
-        <v>8.3250000000000005E-2</v>
-      </c>
-      <c r="I16" s="6">
-        <v>8.7000000000000008E-2</v>
-      </c>
-      <c r="J16" s="6">
-        <v>9.0750000000000011E-2</v>
-      </c>
-      <c r="K16" s="6">
-        <v>9.4500000000000015E-2</v>
-      </c>
-      <c r="L16" s="6">
-        <v>9.8250000000000018E-2</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="O16" s="6">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="P16" s="6">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="R16" s="6">
-        <v>0.10199999999999999</v>
+      <c r="A16" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="7">
+        <v>9.7870000000000013E-2</v>
+      </c>
+      <c r="G16" s="7">
+        <v>9.574000000000002E-2</v>
+      </c>
+      <c r="H16" s="7">
+        <v>9.3610000000000027E-2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>9.1480000000000034E-2</v>
+      </c>
+      <c r="J16" s="7">
+        <v>8.9350000000000041E-2</v>
+      </c>
+      <c r="K16" s="7">
+        <v>8.7220000000000047E-2</v>
+      </c>
+      <c r="L16" s="7">
+        <v>8.5090000000000054E-2</v>
+      </c>
+      <c r="M16" s="8">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="N16" s="8">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="O16" s="7">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="P16" s="7">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="R16" s="7">
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="6">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="C17" s="6">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="D17" s="6">
-        <v>6.9000000000000006E-2</v>
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>717555</v>
+      </c>
+      <c r="C17" s="3">
+        <v>788109</v>
+      </c>
+      <c r="D17" s="3">
+        <v>834650</v>
       </c>
       <c r="E17" s="3">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="F17" s="6">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="G17" s="6">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="H17" s="6">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="I17" s="6">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="J17" s="6">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="K17" s="6">
-        <v>6.3E-2</v>
-      </c>
-      <c r="L17" s="6">
-        <v>6.2E-2</v>
+        <v>876869</v>
+      </c>
+      <c r="F17" s="3">
+        <v>866690</v>
+      </c>
+      <c r="G17" s="3">
+        <v>904668</v>
+      </c>
+      <c r="H17" s="3">
+        <v>901797</v>
+      </c>
+      <c r="I17" s="3">
+        <v>937806</v>
+      </c>
+      <c r="J17" s="3">
+        <v>982396</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1083783</v>
+      </c>
+      <c r="L17" s="3">
+        <v>973020</v>
       </c>
       <c r="M17" s="3">
-        <v>6.0999999999999999E-2</v>
+        <v>1049066</v>
       </c>
       <c r="N17" s="3">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="O17" s="6">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="P17" s="6">
-        <v>6.0999999999999999E-2</v>
+        <v>1005895</v>
+      </c>
+      <c r="O17" s="3">
+        <v>953924</v>
+      </c>
+      <c r="P17" s="3">
+        <v>958682</v>
       </c>
       <c r="Q17" s="6">
-        <v>6.0999999999999999E-2</v>
+        <v>958682</v>
       </c>
       <c r="R17" s="6">
-        <v>6.0999999999999999E-2</v>
+        <v>958682</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="F18" s="7">
-        <v>9.7870000000000013E-2</v>
-      </c>
-      <c r="G18" s="7">
-        <v>9.574000000000002E-2</v>
-      </c>
-      <c r="H18" s="7">
-        <v>9.3610000000000027E-2</v>
-      </c>
-      <c r="I18" s="7">
-        <v>9.1480000000000034E-2</v>
-      </c>
-      <c r="J18" s="7">
-        <v>8.9350000000000041E-2</v>
-      </c>
-      <c r="K18" s="7">
-        <v>8.7220000000000047E-2</v>
-      </c>
-      <c r="L18" s="7">
-        <v>8.5090000000000054E-2</v>
-      </c>
-      <c r="M18" s="8">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="N18" s="8">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="O18" s="7">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="P18" s="7">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="R18" s="7">
-        <v>8.3000000000000004E-2</v>
+      <c r="A18" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="3">
-        <v>717555</v>
-      </c>
-      <c r="C19" s="3">
-        <v>788109</v>
-      </c>
-      <c r="D19" s="3">
-        <v>834650</v>
-      </c>
-      <c r="E19" s="3">
-        <v>876869</v>
-      </c>
-      <c r="F19" s="3">
-        <v>866690</v>
-      </c>
-      <c r="G19" s="3">
-        <v>904668</v>
-      </c>
-      <c r="H19" s="3">
-        <v>901797</v>
-      </c>
-      <c r="I19" s="3">
-        <v>937806</v>
-      </c>
-      <c r="J19" s="3">
-        <v>982396</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1083783</v>
-      </c>
-      <c r="L19" s="3">
-        <v>973020</v>
-      </c>
-      <c r="M19" s="3">
-        <v>1049066</v>
-      </c>
-      <c r="N19" s="3">
-        <v>1005895</v>
-      </c>
-      <c r="O19" s="3">
-        <v>953924</v>
-      </c>
-      <c r="P19" s="3">
-        <v>958682</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>958682</v>
-      </c>
-      <c r="R19" s="6">
-        <v>958682</v>
-      </c>
+      <c r="A19" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="22">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="22">
-        <v>0.51700000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="3">
         <f>19/187</f>
         <v>0.10160427807486631</v>
       </c>
-      <c r="C22">
+      <c r="C20">
         <f>425/5060</f>
         <v>8.399209486166008E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+    <row r="21" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B21" s="6">
         <v>0.1</v>
       </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F32" s="1"/>
@@ -1624,32 +1571,6 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1657,6 +1578,133 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="19">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19">
+        <v>0</v>
+      </c>
+      <c r="D1" s="19">
+        <v>0</v>
+      </c>
+      <c r="E1" s="19">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>414</v>
+      </c>
+      <c r="G1">
+        <v>492</v>
+      </c>
+      <c r="H1">
+        <v>447</v>
+      </c>
+      <c r="I1">
+        <v>481</v>
+      </c>
+      <c r="J1">
+        <v>199</v>
+      </c>
+      <c r="K1">
+        <v>201</v>
+      </c>
+      <c r="L1">
+        <v>140</v>
+      </c>
+      <c r="M1">
+        <v>156</v>
+      </c>
+      <c r="N1">
+        <v>231</v>
+      </c>
+      <c r="O1">
+        <v>231</v>
+      </c>
+      <c r="P1">
+        <v>189</v>
+      </c>
+      <c r="Q1">
+        <v>131</v>
+      </c>
+      <c r="R1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19">
+        <v>0</v>
+      </c>
+      <c r="D2" s="19">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>141</v>
+      </c>
+      <c r="G2" s="3">
+        <v>157</v>
+      </c>
+      <c r="H2" s="3">
+        <v>95</v>
+      </c>
+      <c r="I2" s="3">
+        <v>122</v>
+      </c>
+      <c r="J2" s="3">
+        <v>53</v>
+      </c>
+      <c r="K2" s="3">
+        <v>40</v>
+      </c>
+      <c r="L2" s="3">
+        <v>29</v>
+      </c>
+      <c r="M2" s="3">
+        <v>35</v>
+      </c>
+      <c r="N2" s="3">
+        <v>61</v>
+      </c>
+      <c r="O2" s="3">
+        <v>55</v>
+      </c>
+      <c r="P2" s="3">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>24</v>
+      </c>
+      <c r="R2" s="3">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1670,7 +1718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R34"/>
   <sheetViews>
@@ -2618,12 +2666,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
